--- a/Conceptos HTML CSS.xlsx
+++ b/Conceptos HTML CSS.xlsx
@@ -16,6 +16,7 @@
     <sheet name="HTML" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -789,7 +790,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G41" sqref="G41"/>
     </sheetView>
   </sheetViews>
